--- a/人物卡/化身骑士-林晨.xlsx
+++ b/人物卡/化身骑士-林晨.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\跑团\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73131C0C-67DA-452F-8ACA-77847309A8CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21600" windowHeight="9765" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="使用说明" sheetId="3" r:id="rId1"/>
@@ -24,14 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">卡面!$A$1:$G$27</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -65,6 +52,9 @@
     <t>姓名：</t>
   </si>
   <si>
+    <t>林晨</t>
+  </si>
+  <si>
     <t>等级：</t>
   </si>
   <si>
@@ -74,6 +64,9 @@
     <t>头</t>
   </si>
   <si>
+    <t>无</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
@@ -89,6 +82,9 @@
     <t>颈</t>
   </si>
   <si>
+    <t>白色围巾</t>
+  </si>
+  <si>
     <t>性别：</t>
   </si>
   <si>
@@ -104,6 +100,9 @@
     <t>内衣</t>
   </si>
   <si>
+    <t>白布裹胸</t>
+  </si>
+  <si>
     <t>身躯</t>
   </si>
   <si>
@@ -119,6 +118,9 @@
     <t>色域等级：</t>
   </si>
   <si>
+    <t>青色的长袖衣</t>
+  </si>
+  <si>
     <t>属性</t>
   </si>
   <si>
@@ -131,6 +133,9 @@
     <t>手臂</t>
   </si>
   <si>
+    <t>翼状笼袖</t>
+  </si>
+  <si>
     <t>护手</t>
   </si>
   <si>
@@ -149,6 +154,9 @@
     <t>裙装</t>
   </si>
   <si>
+    <t>灰色短裤</t>
+  </si>
+  <si>
     <t>体质</t>
   </si>
   <si>
@@ -173,12 +181,18 @@
     <t>下身</t>
   </si>
   <si>
+    <t>黑色长靴</t>
+  </si>
+  <si>
     <t>敏捷</t>
   </si>
   <si>
     <t>袜子</t>
   </si>
   <si>
+    <t>白色短袜</t>
+  </si>
+  <si>
     <t>护腿</t>
   </si>
   <si>
@@ -345,339 +359,306 @@
   </si>
   <si>
     <t>侦查</t>
-  </si>
-  <si>
-    <t>血液</t>
-  </si>
-  <si>
-    <t>身体异常</t>
-  </si>
-  <si>
-    <t>毒素成分</t>
-  </si>
-  <si>
-    <t>当前浓度</t>
-  </si>
-  <si>
-    <t>极限浓度</t>
-  </si>
-  <si>
-    <t>起效</t>
-  </si>
-  <si>
-    <t>头部</t>
-  </si>
-  <si>
-    <t>血液毒素</t>
-  </si>
-  <si>
-    <t>神经毒素</t>
-  </si>
-  <si>
-    <t>麻痹毒素</t>
-  </si>
-  <si>
-    <t>媚药成分</t>
-  </si>
-  <si>
-    <t>身体机能</t>
-  </si>
-  <si>
-    <t>躯干</t>
-  </si>
-  <si>
-    <t>要害</t>
-  </si>
-  <si>
-    <t>思维</t>
-  </si>
-  <si>
-    <t>抵抗</t>
-  </si>
-  <si>
-    <t>回复</t>
-  </si>
-  <si>
-    <t>解毒</t>
-  </si>
-  <si>
-    <t>挥舞</t>
-  </si>
-  <si>
-    <t>偏斜</t>
-  </si>
-  <si>
-    <t>精工</t>
-  </si>
-  <si>
-    <t>腿部</t>
-  </si>
-  <si>
-    <t>闪躲</t>
-  </si>
-  <si>
-    <t>奔跑</t>
-  </si>
-  <si>
-    <t>灵魂烙印</t>
-  </si>
-  <si>
-    <t>意识指令</t>
-  </si>
-  <si>
-    <t>心理阴影</t>
-  </si>
-  <si>
-    <t>外物之思</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>II</t>
-  </si>
-  <si>
-    <t>III</t>
-  </si>
-  <si>
-    <t>IV</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>战士</t>
-  </si>
-  <si>
-    <t>巫剑</t>
-  </si>
-  <si>
-    <t>游侠</t>
-  </si>
-  <si>
-    <t>猎人</t>
-  </si>
-  <si>
-    <t>刺客</t>
-  </si>
-  <si>
-    <t>猎巫人</t>
-  </si>
-  <si>
-    <t>侍从</t>
-  </si>
-  <si>
-    <t>T0</t>
-  </si>
-  <si>
-    <t>女仆</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>侍剑</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>炼金术师</t>
-  </si>
-  <si>
-    <t>T3</t>
-  </si>
-  <si>
-    <t>构筑师</t>
-  </si>
-  <si>
-    <t>T4</t>
-  </si>
-  <si>
-    <t>枪卫</t>
-  </si>
-  <si>
-    <t>T5</t>
-  </si>
-  <si>
-    <t>魔法师</t>
-  </si>
-  <si>
-    <t>司书</t>
-  </si>
-  <si>
-    <t>魔法少女</t>
-  </si>
-  <si>
-    <t>快速学习</t>
-  </si>
-  <si>
-    <t>心灵感应</t>
-  </si>
-  <si>
-    <t>强韧身体</t>
-  </si>
-  <si>
-    <t>魔力视线</t>
-  </si>
-  <si>
-    <t>博学</t>
-  </si>
-  <si>
-    <t>冷酷杀手</t>
-  </si>
-  <si>
-    <t>热能视线</t>
-  </si>
-  <si>
-    <t>天生猎手</t>
-  </si>
-  <si>
-    <t>闪电反射</t>
-  </si>
-  <si>
-    <t>空间折叠模组</t>
-  </si>
-  <si>
-    <t>心意防璧模组</t>
-  </si>
-  <si>
-    <t>屈光透镜模组</t>
-  </si>
-  <si>
-    <t>复仇之灵</t>
-  </si>
-  <si>
-    <t>未完之灵</t>
-  </si>
-  <si>
-    <t>守护之灵</t>
-  </si>
-  <si>
-    <t>爱欲化身</t>
-  </si>
-  <si>
-    <t>惩戒化身</t>
-  </si>
-  <si>
-    <t>宁静化身</t>
-  </si>
-  <si>
-    <t>开发程度</t>
-  </si>
-  <si>
-    <t>履历</t>
-  </si>
-  <si>
-    <t>全身立绘</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>经验次数</t>
-  </si>
-  <si>
-    <t>V中出次数</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>妊娠次数</t>
-  </si>
-  <si>
-    <t>A中出次数</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>出产次数</t>
-  </si>
-  <si>
-    <t>异常经验</t>
-  </si>
-  <si>
-    <t>浴精次数</t>
-  </si>
-  <si>
-    <t>凌辱经验</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>饮精次数</t>
-  </si>
-  <si>
-    <t>屈服经验</t>
-  </si>
-  <si>
-    <t>异常状态</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>持续时间</t>
-  </si>
-  <si>
-    <t>生效条件</t>
-  </si>
-  <si>
-    <t>类别</t>
-  </si>
-  <si>
-    <t>林晨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白色围巾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白布裹胸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青色的长袖衣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灰色短裤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>翼状笼袖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白色短袜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑色长靴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">榭寄生制成的木刺。刺入胸口可以马上抑制自己的神性，同时令在场的所有神噬变回正常。1次性
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血液</t>
+  </si>
+  <si>
+    <t>身体异常</t>
+  </si>
+  <si>
+    <t>毒素成分</t>
+  </si>
+  <si>
+    <t>当前浓度</t>
+  </si>
+  <si>
+    <t>极限浓度</t>
+  </si>
+  <si>
+    <t>起效</t>
+  </si>
+  <si>
+    <t>头部</t>
+  </si>
+  <si>
+    <t>血液毒素</t>
+  </si>
+  <si>
+    <t>神经毒素</t>
+  </si>
+  <si>
+    <t>麻痹毒素</t>
+  </si>
+  <si>
+    <t>媚药成分</t>
+  </si>
+  <si>
+    <t>身体机能</t>
+  </si>
+  <si>
+    <t>躯干</t>
+  </si>
+  <si>
+    <t>要害</t>
+  </si>
+  <si>
+    <t>思维</t>
+  </si>
+  <si>
+    <t>抵抗</t>
+  </si>
+  <si>
+    <t>回复</t>
+  </si>
+  <si>
+    <t>解毒</t>
+  </si>
+  <si>
+    <t>挥舞</t>
+  </si>
+  <si>
+    <t>偏斜</t>
+  </si>
+  <si>
+    <t>精工</t>
+  </si>
+  <si>
+    <t>腿部</t>
+  </si>
+  <si>
+    <t>闪躲</t>
+  </si>
+  <si>
+    <t>奔跑</t>
+  </si>
+  <si>
+    <t>灵魂烙印</t>
+  </si>
+  <si>
+    <t>意识指令</t>
+  </si>
+  <si>
+    <t>心理阴影</t>
+  </si>
+  <si>
+    <t>外物之思</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>战士</t>
+  </si>
+  <si>
+    <t>巫剑</t>
+  </si>
+  <si>
+    <t>游侠</t>
+  </si>
+  <si>
+    <t>猎人</t>
+  </si>
+  <si>
+    <t>刺客</t>
+  </si>
+  <si>
+    <t>猎巫人</t>
+  </si>
+  <si>
+    <t>侍从</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>女仆</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>侍剑</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>炼金术师</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>构筑师</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>枪卫</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>魔法师</t>
+  </si>
+  <si>
+    <t>司书</t>
+  </si>
+  <si>
+    <t>魔法少女</t>
+  </si>
+  <si>
+    <t>快速学习</t>
+  </si>
+  <si>
+    <t>心灵感应</t>
+  </si>
+  <si>
+    <t>强韧身体</t>
+  </si>
+  <si>
+    <t>魔力视线</t>
+  </si>
+  <si>
+    <t>博学</t>
+  </si>
+  <si>
+    <t>冷酷杀手</t>
+  </si>
+  <si>
+    <t>热能视线</t>
+  </si>
+  <si>
+    <t>天生猎手</t>
+  </si>
+  <si>
+    <t>闪电反射</t>
+  </si>
+  <si>
+    <t>空间折叠模组</t>
+  </si>
+  <si>
+    <t>心意防璧模组</t>
+  </si>
+  <si>
+    <t>屈光透镜模组</t>
+  </si>
+  <si>
+    <t>复仇之灵</t>
+  </si>
+  <si>
+    <t>未完之灵</t>
+  </si>
+  <si>
+    <t>守护之灵</t>
+  </si>
+  <si>
+    <t>爱欲化身</t>
+  </si>
+  <si>
+    <t>惩戒化身</t>
+  </si>
+  <si>
+    <t>宁静化身</t>
+  </si>
+  <si>
+    <t>开发程度</t>
+  </si>
+  <si>
+    <t>履历</t>
+  </si>
+  <si>
+    <t>全身立绘</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>经验次数</t>
+  </si>
+  <si>
+    <t>V中出次数</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>妊娠次数</t>
+  </si>
+  <si>
+    <t>A中出次数</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>出产次数</t>
+  </si>
+  <si>
+    <t>异常经验</t>
+  </si>
+  <si>
+    <t>浴精次数</t>
+  </si>
+  <si>
+    <t>凌辱经验</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>饮精次数</t>
+  </si>
+  <si>
+    <t>屈服经验</t>
+  </si>
+  <si>
+    <t>异常状态</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>持续时间</t>
+  </si>
+  <si>
+    <t>生效条件</t>
+  </si>
+  <si>
+    <t>类别</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -686,30 +667,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -797,9 +1100,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -834,44 +1379,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -898,9 +1470,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1158,39 +1727,42 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="4" max="4" width="12.6640625"/>
-    <col min="12" max="12" width="13.88671875" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.6666666666667"/>
+    <col min="12" max="12" width="13.8833333333333" customWidth="1"/>
+    <col min="15" max="15" width="13.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1221,225 +1793,225 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>197</v>
+      <c r="B2" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <f>VLOOKUP(F2,后台数据!A1:B25,2,TRUE)</f>
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>199</v>
+        <v>12</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10">
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11">
         <v>0</v>
       </c>
       <c r="R2" s="6"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" t="str">
         <f>VLOOKUP(D2,后台数据!A26:B50,2,2)</f>
         <v>T1</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>198</v>
+        <v>18</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="M3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="10">
+        <v>14</v>
+      </c>
+      <c r="N3" s="11">
         <v>1</v>
       </c>
       <c r="O3" s="5"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
       <c r="R3" s="6"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>200</v>
+        <v>24</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="M4">
         <v>100</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="11">
         <v>1</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" s="10">
+        <v>26</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="11">
         <v>2</v>
       </c>
       <c r="R4" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" ht="14.25" spans="1:18">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>201</v>
+      <c r="L5" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="M5">
         <v>75</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="11">
         <v>2</v>
       </c>
       <c r="O5" s="5"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
       <c r="R5" s="6"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B6" s="4">
         <f>(IFERROR(VLOOKUP(卡面!D2,后台数据!G1:H12,2,TRUE),0)+45)-SUM(B7:B14)</f>
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H6">
         <v>16</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>203</v>
+        <v>35</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="M6">
         <v>75</v>
       </c>
-      <c r="N6" s="10"/>
+      <c r="N6" s="11"/>
       <c r="O6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" s="10">
+        <v>37</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="11">
         <v>2</v>
       </c>
       <c r="R6" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B7" s="6">
         <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1">
         <f>ROUNDUP(SUM(B7:B8)/4,0)</f>
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="11">
+        <v>41</v>
+      </c>
+      <c r="F7" s="12">
         <f>ROUNDUP(SUM(B9:B10)/4,0)</f>
         <v>3</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>202</v>
+        <v>42</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="M7">
         <v>75</v>
       </c>
-      <c r="N7" s="10"/>
+      <c r="N7" s="11"/>
       <c r="O7" s="5"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
       <c r="R7" s="6"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B8" s="6">
         <v>8</v>
@@ -1447,71 +2019,71 @@
       <c r="C8" s="5"/>
       <c r="F8" s="6"/>
       <c r="K8" s="5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="L8" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="M8">
         <v>100</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="11">
         <v>1</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="P8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q8" s="10">
+        <v>42</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q8" s="11">
         <v>1</v>
       </c>
       <c r="R8" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B9" s="6">
         <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D9" s="1">
         <f>ROUNDUP(SUM(B11:B12)/4,0)</f>
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="11">
+        <v>50</v>
+      </c>
+      <c r="F9" s="12">
         <f>ROUNDUP(SUM(B13:B14)/4,0)</f>
         <v>2</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>205</v>
+        <v>51</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="M9">
         <v>50</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="11">
         <v>1</v>
       </c>
       <c r="O9" s="5"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
       <c r="R9" s="6"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" ht="14.25" spans="1:18">
       <c r="A10" s="5" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B10" s="6">
         <v>6</v>
@@ -1521,37 +2093,37 @@
       <c r="E10" s="8"/>
       <c r="F10" s="9"/>
       <c r="K10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>204</v>
+        <v>54</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="M10">
         <v>50</v>
       </c>
-      <c r="N10" s="10"/>
+      <c r="N10" s="11"/>
       <c r="O10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="P10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q10" s="10">
+        <v>56</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q10" s="11">
         <v>1</v>
       </c>
       <c r="R10" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" ht="14.25" spans="1:18">
       <c r="A11" s="5" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B11" s="6">
         <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D11" s="3">
         <f>13-SUM(D12,F12,D14,F14)</f>
@@ -1560,7 +2132,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
       <c r="K11" s="7" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
@@ -1570,33 +2142,33 @@
       <c r="Q11" s="8"/>
       <c r="R11" s="9"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="10">
+        <v>61</v>
+      </c>
+      <c r="B12" s="11">
         <v>6</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="10">
+        <v>63</v>
+      </c>
+      <c r="F12" s="11">
         <v>4</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="4"/>
       <c r="K12" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="L12" t="str">
         <f>VLOOKUP(SUM(M4:M10)/7,后台数据!G13:H18,2,TRUE)</f>
@@ -1610,33 +2182,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="10">
+        <v>66</v>
+      </c>
+      <c r="B13" s="11">
         <v>3</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="F13" s="10"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="5"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" ht="14.25" spans="1:10">
       <c r="A14" s="7" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B14" s="8">
         <v>3</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D14" s="8">
         <v>2</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F14" s="8">
         <v>3</v>
@@ -1644,9 +2216,9 @@
       <c r="G14" s="5"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B15" s="3">
         <f>(IF(VLOOKUP(D4,后台数据!C22:C40,1,FALSE)="快速学习",20+(D2-1)*5,25+(D2-1)*3)-SUM(SUM(B16:B27),SUM(D17:D27)))</f>
@@ -1657,15 +2229,15 @@
       <c r="G15" s="5"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B16">
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D16" s="6">
         <v>0</v>
@@ -1673,15 +2245,15 @@
       <c r="G16" s="5"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" ht="14.25" spans="1:10">
       <c r="A17" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D17" s="6">
         <v>0</v>
@@ -1691,35 +2263,35 @@
       <c r="I17" s="8"/>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D18" s="6">
         <v>0</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="5" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D19" s="6">
         <v>0</v>
@@ -1727,15 +2299,15 @@
       <c r="G19" s="5"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="5" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D20" s="6">
         <v>0</v>
@@ -1743,15 +2315,15 @@
       <c r="G20" s="5"/>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="5" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D21" s="6">
         <v>5</v>
@@ -1759,39 +2331,39 @@
       <c r="G21" s="5"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" ht="14.25" spans="1:10">
       <c r="A22" s="5" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D22" s="6">
         <v>10</v>
       </c>
       <c r="G22" s="5"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23" s="5" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D23" s="6">
         <v>0</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -1803,245 +2375,245 @@
       <c r="O23" s="3"/>
       <c r="P23" s="4"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" s="5" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D24" s="6">
         <v>0</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I24" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K24" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="M24" t="s">
-        <v>85</v>
+        <v>94</v>
+      </c>
+      <c r="N24">
+        <f>B16*3+B7*3</f>
+        <v>54</v>
       </c>
       <c r="O24" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="P24" s="6"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="A25" s="5" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D25" s="6">
         <v>0</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="I25" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="K25" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="M25" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="O25" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="P25" s="6"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" ht="14.25" spans="1:16">
       <c r="A26" s="5" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D26" s="6">
         <v>0</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="8" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="8" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="N26" s="8"/>
       <c r="O26" s="8" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" ht="14.25" spans="1:4">
       <c r="A27" s="7" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B27" s="8">
         <v>0</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D27" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="172.8" x14ac:dyDescent="0.25">
+    <row r="30" ht="162" spans="1:1">
       <c r="A30" s="13" t="s">
-        <v>206</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B5">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="骑士">
+    <cfRule type="containsText" dxfId="0" priority="5" operator="between" text="骑士">
       <formula>NOT(ISERROR(SEARCH("骑士",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="巫剑">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="between" text="巫剑">
       <formula>NOT(ISERROR(SEARCH("巫剑",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="战士">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="between" text="战士">
       <formula>NOT(ISERROR(SEARCH("战士",B5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4">
+      <formula1>后台数据!$C$22:$C$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
       <formula1>"男性,女性,双成"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
       <formula1>"战士,骑士,巫剑,游侠,猎人,刺客,修女,巫女,猎巫人,侍从,女仆,侍剑,炼金术师,构筑师,枪卫,魔法师,司书,魔法少女"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
-          <x14:formula1>
-            <xm:f>后台数据!$C$22:$C$40</xm:f>
-          </x14:formula1>
-          <xm:sqref>D4</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:K26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.25"/>
+    <row r="2" spans="2:11">
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
       <c r="G2" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11">
       <c r="B3" s="5" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11">
       <c r="B4" s="5" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E4" s="6"/>
       <c r="G4" s="5"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11">
       <c r="B5" s="5" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E5" s="6"/>
       <c r="G5" s="5"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11">
       <c r="B6" s="5" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E6" s="6"/>
       <c r="G6" s="5"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" ht="14.25" spans="2:11">
       <c r="B7" s="7" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -2049,142 +2621,142 @@
       <c r="G7" s="5"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" ht="14.25" spans="7:11">
       <c r="G8" s="5"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11">
       <c r="B9" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
       <c r="G9" s="5" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11">
       <c r="B10" s="5" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D10" s="6"/>
       <c r="G10" s="5"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11">
       <c r="B11" s="5" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G11" s="5"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11">
       <c r="B12" s="5" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D12" s="6"/>
       <c r="G12" s="5"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11">
       <c r="B13" s="5" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G13" s="5"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D14" s="6"/>
       <c r="G14" s="5"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11">
       <c r="B15" s="5" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11">
       <c r="B16" s="5" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D16" s="6"/>
       <c r="G16" s="5"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" ht="14.25" spans="2:11">
       <c r="B17" s="7" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="G17" s="5"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:11">
       <c r="G18" s="5"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:11">
       <c r="G19" s="5"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:11">
       <c r="G20" s="5"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:11">
       <c r="G21" s="5" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:11">
       <c r="G22" s="5"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:11">
       <c r="G23" s="5"/>
       <c r="K23" s="6"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="7:11">
       <c r="G24" s="5"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:11">
       <c r="G25" s="5"/>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" ht="14.25" spans="7:11">
       <c r="G26" s="7"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -2192,98 +2764,100 @@
       <c r="K26" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B2:L26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.25"/>
+    <row r="2" spans="2:12">
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
       <c r="H2" s="2" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12">
       <c r="B3" s="5"/>
       <c r="F3" s="6"/>
       <c r="H3" s="5"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12">
       <c r="B4" s="5"/>
       <c r="F4" s="6"/>
       <c r="H4" s="5"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12">
       <c r="B5" s="5"/>
       <c r="F5" s="6"/>
       <c r="H5" s="5"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12">
       <c r="B6" s="5"/>
       <c r="F6" s="6"/>
       <c r="H6" s="5"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12">
       <c r="B7" s="5"/>
       <c r="F7" s="6"/>
       <c r="H7" s="5"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12">
       <c r="B8" s="5"/>
       <c r="F8" s="6"/>
       <c r="H8" s="5"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12">
       <c r="B9" s="5"/>
       <c r="F9" s="6"/>
       <c r="H9" s="5"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12">
       <c r="B10" s="5"/>
       <c r="F10" s="6"/>
       <c r="H10" s="5"/>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12">
       <c r="B11" s="5"/>
       <c r="F11" s="6"/>
       <c r="H11" s="5"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12">
       <c r="B12" s="5"/>
       <c r="F12" s="6"/>
       <c r="H12" s="5"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" ht="14.25" spans="2:12">
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -2295,77 +2869,78 @@
       <c r="K13" s="8"/>
       <c r="L13" s="9"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" ht="14.25"/>
+    <row r="15" spans="2:12">
       <c r="B15" s="2" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="4"/>
       <c r="H15" s="2" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12">
       <c r="B16" s="5"/>
       <c r="F16" s="6"/>
       <c r="H16" s="5"/>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12">
       <c r="B17" s="5"/>
       <c r="F17" s="6"/>
       <c r="H17" s="5"/>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12">
       <c r="B18" s="5"/>
       <c r="F18" s="6"/>
       <c r="H18" s="5"/>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12">
       <c r="B19" s="5"/>
       <c r="F19" s="6"/>
       <c r="H19" s="5"/>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12">
       <c r="B20" s="5"/>
       <c r="F20" s="6"/>
       <c r="H20" s="5"/>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12">
       <c r="B21" s="5"/>
       <c r="F21" s="6"/>
       <c r="H21" s="5"/>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12">
       <c r="B22" s="5"/>
       <c r="F22" s="6"/>
       <c r="H22" s="5"/>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12">
       <c r="B23" s="5"/>
       <c r="F23" s="6"/>
       <c r="H23" s="5"/>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12">
       <c r="B24" s="5"/>
       <c r="F24" s="6"/>
       <c r="H24" s="5"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" ht="14.25" spans="2:12">
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -2374,7 +2949,7 @@
       <c r="H25" s="5"/>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" ht="14.25" spans="8:12">
       <c r="H26" s="7"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
@@ -2382,26 +2957,27 @@
       <c r="L26" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="1"/>
-    <col min="7" max="7" width="9.33203125"/>
+    <col min="1" max="1" width="9.33333333333333" style="1"/>
+    <col min="7" max="7" width="9.33333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -2412,7 +2988,7 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="G1">
         <v>2</v>
@@ -2421,7 +2997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>350</v>
       </c>
@@ -2432,7 +3008,7 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -2441,7 +3017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <f>A2*1.2</f>
         <v>420</v>
@@ -2453,7 +3029,7 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -2462,7 +3038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A25" si="0">A3*1.2</f>
         <v>504</v>
@@ -2474,7 +3050,7 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="G4">
         <v>8</v>
@@ -2483,10 +3059,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
-        <v>604.79999999999995</v>
+        <v>604.8</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -2495,7 +3071,7 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -2504,16 +3080,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
-        <v>725.75999999999988</v>
+        <v>725.76</v>
       </c>
       <c r="B6">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -2528,16 +3104,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
-        <v>870.91199999999981</v>
+        <v>870.912</v>
       </c>
       <c r="B7">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -2552,16 +3128,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
-        <v>1045.0943999999997</v>
+        <v>1045.0944</v>
       </c>
       <c r="B8">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -2576,16 +3152,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
-        <v>1254.1132799999996</v>
+        <v>1254.11328</v>
       </c>
       <c r="B9">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -2600,16 +3176,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
-        <v>1504.9359359999994</v>
+        <v>1504.935936</v>
       </c>
       <c r="B10">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -2624,16 +3200,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
-        <v>1805.9231231999993</v>
+        <v>1805.9231232</v>
       </c>
       <c r="B11">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -2648,16 +3224,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
-        <v>2167.1077478399989</v>
+        <v>2167.10774784</v>
       </c>
       <c r="B12">
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D12">
         <v>14</v>
@@ -2672,16 +3248,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
-        <v>2600.5292974079985</v>
+        <v>2600.529297408</v>
       </c>
       <c r="B13">
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="D13">
         <v>16</v>
@@ -2693,19 +3269,19 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
-        <v>3120.635156889598</v>
+        <v>3120.6351568896</v>
       </c>
       <c r="B14">
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D14">
         <v>18</v>
@@ -2717,19 +3293,19 @@
         <v>25</v>
       </c>
       <c r="H14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
-        <v>3744.7621882675176</v>
+        <v>3744.76218826752</v>
       </c>
       <c r="B15">
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D15">
         <v>20</v>
@@ -2741,19 +3317,19 @@
         <v>50</v>
       </c>
       <c r="H15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
-        <v>4493.7146259210213</v>
+        <v>4493.71462592102</v>
       </c>
       <c r="B16">
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2762,110 +3338,110 @@
         <v>75</v>
       </c>
       <c r="H16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
-        <v>5392.4575511052253</v>
+        <v>5392.45755110523</v>
       </c>
       <c r="B17">
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="G17">
         <v>100</v>
       </c>
       <c r="H17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
-        <v>6470.9490613262706</v>
+        <v>6470.94906132627</v>
       </c>
       <c r="B18">
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="G18">
         <v>125</v>
       </c>
       <c r="H18" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
-        <v>7765.1388735915243</v>
+        <v>7765.13887359152</v>
       </c>
       <c r="B19">
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
-        <v>9318.1666483098288</v>
+        <v>9318.16664830983</v>
       </c>
       <c r="B20">
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="G20">
         <v>30</v>
       </c>
       <c r="H20" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
-        <v>11181.799977971794</v>
+        <v>11181.7999779718</v>
       </c>
       <c r="B21">
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="G21">
         <f>ROUNDDOWN(G20+G20*1.5,0)</f>
         <v>75</v>
       </c>
       <c r="H21" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
-        <v>13418.159973566153</v>
+        <v>13418.1599735662</v>
       </c>
       <c r="B22">
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2875,19 +3451,19 @@
         <v>187</v>
       </c>
       <c r="H22" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
-        <v>16101.791968279384</v>
+        <v>16101.7919682794</v>
       </c>
       <c r="B23">
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2897,331 +3473,330 @@
         <v>467</v>
       </c>
       <c r="H23" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
-        <v>19322.150361935259</v>
+        <v>19322.1503619353</v>
       </c>
       <c r="B24">
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
-        <v>23186.58043432231</v>
+        <v>23186.5804343223</v>
       </c>
       <c r="B25">
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D25">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C26" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D26">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C27" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="D27">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C28" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="D28">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C29" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="D29">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C30" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="D30">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C31" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="D31">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C32" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="D32">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C33" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="D33">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C34" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="D34">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C35" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D35">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C36" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D36">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C37" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D37">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C38" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="D38">
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C39" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="D39">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C40" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="D40">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41">
         <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42">
         <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43">
         <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44">
         <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45">
         <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46">
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47">
         <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48">
         <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49">
         <v>24</v>
       </c>
       <c r="B49" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50">
         <v>25</v>
       </c>
       <c r="B50" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C6">
     <cfRule type="colorScale" priority="3">
       <colorScale>
@@ -3231,41 +3806,43 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>"骑士"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="骑士">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="between" text="骑士">
       <formula>NOT(ISERROR(SEARCH("骑士",C6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="D1" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="J1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3275,15 +3852,15 @@
         <v>T1</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="F2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3293,15 +3870,15 @@
         <v>T1</v>
       </c>
       <c r="D3" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="F3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3311,15 +3888,15 @@
         <v>T1</v>
       </c>
       <c r="D4" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="F4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3329,15 +3906,15 @@
         <v>T1</v>
       </c>
       <c r="D5" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="F5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3347,130 +3924,130 @@
         <v>T1</v>
       </c>
       <c r="D6" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>193</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" t="s">
+        <v>205</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
         <v>194</v>
       </c>
-      <c r="C10" t="s">
-        <v>195</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>193</v>
-      </c>
-      <c r="B15" t="s">
-        <v>194</v>
-      </c>
-      <c r="C15" t="s">
-        <v>195</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="C20" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E20" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="B25" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="C25" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E25" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="B30" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="C30" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E30" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/人物卡/化身骑士-林晨.xlsx
+++ b/人物卡/化身骑士-林晨.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" activeTab="1"/>
+    <workbookView windowWidth="21600" windowHeight="9840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="使用说明" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="206">
   <si>
     <t>玩家名：</t>
   </si>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t>色域等级：</t>
-  </si>
-  <si>
-    <t>青色的长袖衣</t>
   </si>
   <si>
     <t>属性</t>
@@ -652,32 +649,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -690,21 +673,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -720,7 +712,29 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -734,16 +748,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -757,25 +764,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -783,7 +788,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -796,23 +801,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -827,13 +817,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,151 +991,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1101,6 +1091,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1112,6 +1126,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1134,67 +1183,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1206,10 +1196,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1218,133 +1208,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1379,7 +1369,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -1388,7 +1378,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1752,7 +1742,7 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1903,7 +1893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:18">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1916,15 +1906,9 @@
       <c r="K5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5">
-        <v>75</v>
-      </c>
-      <c r="N5" s="11">
-        <v>2</v>
-      </c>
+      <c r="L5" s="10"/>
+      <c r="M5"/>
+      <c r="N5" s="11"/>
       <c r="O5" s="5"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
@@ -1932,39 +1916,39 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="4">
         <f>(IFERROR(VLOOKUP(卡面!D2,后台数据!G1:H12,2,TRUE),0)+45)-SUM(B7:B14)</f>
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6">
         <v>16</v>
       </c>
       <c r="K6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>36</v>
       </c>
       <c r="M6">
         <v>75</v>
       </c>
       <c r="N6" s="11"/>
       <c r="O6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>38</v>
       </c>
       <c r="Q6" s="11">
         <v>2</v>
@@ -1975,30 +1959,30 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="6">
         <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1">
         <f>ROUNDUP(SUM(B7:B8)/4,0)</f>
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" s="12">
         <f>ROUNDUP(SUM(B9:B10)/4,0)</f>
         <v>3</v>
       </c>
       <c r="K7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>43</v>
       </c>
       <c r="M7">
         <v>75</v>
@@ -2011,7 +1995,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="6">
         <v>8</v>
@@ -2019,10 +2003,10 @@
       <c r="C8" s="5"/>
       <c r="F8" s="6"/>
       <c r="K8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" t="s">
-        <v>46</v>
       </c>
       <c r="M8">
         <v>100</v>
@@ -2031,10 +2015,10 @@
         <v>1</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="11">
         <v>1</v>
@@ -2045,30 +2029,30 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="6">
         <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" s="1">
         <f>ROUNDUP(SUM(B11:B12)/4,0)</f>
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" s="12">
         <f>ROUNDUP(SUM(B13:B14)/4,0)</f>
         <v>2</v>
       </c>
       <c r="K9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>52</v>
       </c>
       <c r="M9">
         <v>50</v>
@@ -2083,7 +2067,7 @@
     </row>
     <row r="10" ht="14.25" spans="1:18">
       <c r="A10" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="6">
         <v>6</v>
@@ -2093,20 +2077,20 @@
       <c r="E10" s="8"/>
       <c r="F10" s="9"/>
       <c r="K10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>55</v>
       </c>
       <c r="M10">
         <v>50</v>
       </c>
       <c r="N10" s="11"/>
       <c r="O10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="P10" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="Q10" s="11">
         <v>1</v>
@@ -2117,13 +2101,13 @@
     </row>
     <row r="11" ht="14.25" spans="1:18">
       <c r="A11" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="6">
         <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="3">
         <f>13-SUM(D12,F12,D14,F14)</f>
@@ -2132,7 +2116,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
@@ -2144,35 +2128,35 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="11">
         <v>6</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F12" s="11">
         <v>4</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="4"/>
       <c r="K12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L12" t="str">
         <f>VLOOKUP(SUM(M4:M10)/7,后台数据!G13:H18,2,TRUE)</f>
-        <v>T3</v>
+        <v>T2</v>
       </c>
       <c r="O12" t="s">
         <v>7</v>
@@ -2184,7 +2168,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="11">
         <v>3</v>
@@ -2196,19 +2180,19 @@
     </row>
     <row r="14" ht="14.25" spans="1:10">
       <c r="A14" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="8">
         <v>3</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" s="8">
         <v>2</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F14" s="8">
         <v>3</v>
@@ -2218,7 +2202,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" s="3">
         <f>(IF(VLOOKUP(D4,后台数据!C22:C40,1,FALSE)="快速学习",20+(D2-1)*5,25+(D2-1)*3)-SUM(SUM(B16:B27),SUM(D17:D27)))</f>
@@ -2231,13 +2215,13 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16">
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D16" s="6">
         <v>0</v>
@@ -2247,13 +2231,13 @@
     </row>
     <row r="17" ht="14.25" spans="1:10">
       <c r="A17" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="6">
         <v>0</v>
@@ -2265,19 +2249,19 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D18" s="6">
         <v>0</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -2285,13 +2269,13 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D19" s="6">
         <v>0</v>
@@ -2301,13 +2285,13 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" s="6">
         <v>0</v>
@@ -2317,13 +2301,13 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D21" s="6">
         <v>5</v>
@@ -2333,13 +2317,13 @@
     </row>
     <row r="22" ht="14.25" spans="1:10">
       <c r="A22" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D22" s="6">
         <v>10</v>
@@ -2351,19 +2335,19 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D23" s="6">
         <v>0</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -2377,111 +2361,111 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D24" s="6">
         <v>0</v>
       </c>
       <c r="G24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I24" t="s">
         <v>91</v>
       </c>
-      <c r="I24" t="s">
+      <c r="K24" t="s">
         <v>92</v>
       </c>
-      <c r="K24" t="s">
+      <c r="M24" t="s">
         <v>93</v>
-      </c>
-      <c r="M24" t="s">
-        <v>94</v>
       </c>
       <c r="N24">
         <f>B16*3+B7*3</f>
         <v>54</v>
       </c>
       <c r="O24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P24" s="6"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D25" s="6">
         <v>0</v>
       </c>
       <c r="G25" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I25" t="s">
         <v>98</v>
       </c>
-      <c r="I25" t="s">
+      <c r="K25" t="s">
         <v>99</v>
       </c>
-      <c r="K25" t="s">
+      <c r="M25" t="s">
         <v>100</v>
       </c>
-      <c r="M25" t="s">
+      <c r="O25" t="s">
         <v>101</v>
-      </c>
-      <c r="O25" t="s">
-        <v>102</v>
       </c>
       <c r="P25" s="6"/>
     </row>
     <row r="26" ht="14.25" spans="1:16">
       <c r="A26" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D26" s="6">
         <v>0</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N26" s="8"/>
       <c r="O26" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P26" s="9"/>
     </row>
     <row r="27" ht="14.25" spans="1:4">
       <c r="A27" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B27" s="8">
         <v>0</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D27" s="9">
         <v>0</v>
@@ -2489,7 +2473,7 @@
     </row>
     <row r="30" ht="162" spans="1:1">
       <c r="A30" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2510,14 +2494,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4">
-      <formula1>后台数据!$C$22:$C$40</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
       <formula1>"男性,女性,双成"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
       <formula1>"战士,骑士,巫剑,游侠,猎人,刺客,修女,巫女,猎巫人,侍从,女仆,侍剑,炼金术师,构筑师,枪卫,魔法师,司书,魔法少女"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4">
+      <formula1>后台数据!$C$22:$C$40</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2556,13 +2540,13 @@
     <row r="1" ht="14.25"/>
     <row r="2" spans="2:11">
       <c r="B2" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
       <c r="G2" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -2571,25 +2555,25 @@
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" t="s">
         <v>115</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>116</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E4" s="6"/>
       <c r="G4" s="5"/>
@@ -2597,7 +2581,7 @@
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E5" s="6"/>
       <c r="G5" s="5"/>
@@ -2605,7 +2589,7 @@
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E6" s="6"/>
       <c r="G6" s="5"/>
@@ -2613,7 +2597,7 @@
     </row>
     <row r="7" ht="14.25" spans="2:11">
       <c r="B7" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -2627,18 +2611,18 @@
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
       <c r="G9" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" s="6"/>
       <c r="G10" s="5"/>
@@ -2646,20 +2630,20 @@
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>127</v>
       </c>
       <c r="G11" s="5"/>
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D12" s="6"/>
       <c r="G12" s="5"/>
@@ -2667,20 +2651,20 @@
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" t="s">
         <v>128</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="G13" s="5"/>
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="6"/>
       <c r="G14" s="5"/>
@@ -2688,22 +2672,22 @@
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" t="s">
         <v>131</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>133</v>
-      </c>
       <c r="G15" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D16" s="6"/>
       <c r="G16" s="5"/>
@@ -2711,13 +2695,13 @@
     </row>
     <row r="17" ht="14.25" spans="2:11">
       <c r="B17" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>136</v>
-      </c>
       <c r="D17" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G17" s="5"/>
       <c r="K17" s="6"/>
@@ -2736,7 +2720,7 @@
     </row>
     <row r="21" spans="7:11">
       <c r="G21" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K21" s="6"/>
     </row>
@@ -2783,14 +2767,14 @@
     <row r="1" ht="14.25"/>
     <row r="2" spans="2:12">
       <c r="B2" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
       <c r="H2" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -2872,14 +2856,14 @@
     <row r="14" ht="14.25"/>
     <row r="15" spans="2:12">
       <c r="B15" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="4"/>
       <c r="H15" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -2988,7 +2972,7 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G1">
         <v>2</v>
@@ -3008,7 +2992,7 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -3029,7 +3013,7 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -3050,7 +3034,7 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G4">
         <v>8</v>
@@ -3071,7 +3055,7 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -3089,7 +3073,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -3137,7 +3121,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -3161,7 +3145,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -3185,7 +3169,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -3209,7 +3193,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -3233,7 +3217,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D12">
         <v>14</v>
@@ -3257,7 +3241,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D13">
         <v>16</v>
@@ -3269,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3281,7 +3265,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D14">
         <v>18</v>
@@ -3293,7 +3277,7 @@
         <v>25</v>
       </c>
       <c r="H14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3305,7 +3289,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D15">
         <v>20</v>
@@ -3317,7 +3301,7 @@
         <v>50</v>
       </c>
       <c r="H15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3329,7 +3313,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -3338,7 +3322,7 @@
         <v>75</v>
       </c>
       <c r="H16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3350,13 +3334,13 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G17">
         <v>100</v>
       </c>
       <c r="H17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3368,13 +3352,13 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G18">
         <v>125</v>
       </c>
       <c r="H18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3386,13 +3370,13 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3404,13 +3388,13 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G20">
         <v>30</v>
       </c>
       <c r="H20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3422,14 +3406,14 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G21">
         <f>ROUNDDOWN(G20+G20*1.5,0)</f>
         <v>75</v>
       </c>
       <c r="H21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3451,7 +3435,7 @@
         <v>187</v>
       </c>
       <c r="H22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3463,7 +3447,7 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -3473,7 +3457,7 @@
         <v>467</v>
       </c>
       <c r="H23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3485,7 +3469,7 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -3500,7 +3484,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -3511,10 +3495,10 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -3525,10 +3509,10 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D27">
         <v>5</v>
@@ -3539,10 +3523,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D28">
         <v>6</v>
@@ -3553,10 +3537,10 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D29">
         <v>7</v>
@@ -3567,10 +3551,10 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D30">
         <v>8</v>
@@ -3581,10 +3565,10 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D31">
         <v>9</v>
@@ -3595,10 +3579,10 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C32" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D32">
         <v>10</v>
@@ -3609,10 +3593,10 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D33">
         <v>11</v>
@@ -3623,10 +3607,10 @@
         <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D34">
         <v>12</v>
@@ -3637,10 +3621,10 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D35">
         <v>13</v>
@@ -3651,10 +3635,10 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D36">
         <v>14</v>
@@ -3665,10 +3649,10 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D37">
         <v>15</v>
@@ -3679,10 +3663,10 @@
         <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D38">
         <v>16</v>
@@ -3693,10 +3677,10 @@
         <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D39">
         <v>17</v>
@@ -3707,10 +3691,10 @@
         <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D40">
         <v>18</v>
@@ -3721,7 +3705,7 @@
         <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3729,7 +3713,7 @@
         <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3737,7 +3721,7 @@
         <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3745,7 +3729,7 @@
         <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3753,7 +3737,7 @@
         <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3761,7 +3745,7 @@
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3769,7 +3753,7 @@
         <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3777,7 +3761,7 @@
         <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3785,7 +3769,7 @@
         <v>24</v>
       </c>
       <c r="B49" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3793,7 +3777,7 @@
         <v>25</v>
       </c>
       <c r="B50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3831,18 +3815,18 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" t="s">
         <v>185</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>186</v>
-      </c>
-      <c r="J1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3852,15 +3836,15 @@
         <v>T1</v>
       </c>
       <c r="D2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" t="s">
         <v>189</v>
-      </c>
-      <c r="F2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3870,15 +3854,15 @@
         <v>T1</v>
       </c>
       <c r="D3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" t="s">
         <v>192</v>
-      </c>
-      <c r="F3" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3888,15 +3872,15 @@
         <v>T1</v>
       </c>
       <c r="D4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" t="s">
         <v>195</v>
-      </c>
-      <c r="F4" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3906,15 +3890,15 @@
         <v>T1</v>
       </c>
       <c r="D5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F5" t="s">
         <v>197</v>
-      </c>
-      <c r="F5" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3924,125 +3908,125 @@
         <v>T1</v>
       </c>
       <c r="D6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F6" t="s">
         <v>200</v>
-      </c>
-      <c r="F6" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" t="s">
         <v>203</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>204</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
         <v>205</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B15" t="s">
         <v>203</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>204</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
         <v>205</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B20" t="s">
         <v>203</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>204</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
         <v>205</v>
-      </c>
-      <c r="D20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
+        <v>202</v>
+      </c>
+      <c r="B25" t="s">
         <v>203</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>204</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" t="s">
         <v>205</v>
-      </c>
-      <c r="D25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
+        <v>202</v>
+      </c>
+      <c r="B30" t="s">
         <v>203</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>204</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" t="s">
         <v>205</v>
-      </c>
-      <c r="D30" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" t="s">
-        <v>206</v>
       </c>
     </row>
   </sheetData>
